--- a/DOM_Banner/output/dept0713/John N Galgiani_2022.xlsx
+++ b/DOM_Banner/output/dept0713/John N Galgiani_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297259965</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Immunogenetics associated with severe coccidioidomycosis</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-11-22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JCI insight</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Society for Clinical Investigation</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1172/jci.insight.159491</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36166305</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1172/jci.insight.159491</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Immunobiology, University of Arizona, Tucson, AZ;; National Institute of Allergy and Infectious Diseases, National Institutes of Health, Bethesda, MD;; *Valley Fever Center for Excellence, University of Arizona, Tucson, AZ;; *Valley Fever Center for Excellence, University of Arizona, Tucson, AZ;; *Valley Fever Center for Excellence, University of Arizona, Tucson, AZ;; *Valley Fever Center for Excellence, University of Arizona, Tucson, AZ;; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ;; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ;; Department of Immunobiology, University of Arizona, Tucson, AZ;; Department of Immunobiology, University of Arizona, Tucson, AZ;; *Valley Fever Center for Excellence, University of Arizona, Tucson, AZ;; National Institute of Allergy and Infectious Diseases, National Institutes of Health, Bethesda, MD;; Department of Medicine, University of Arizona, Tucson, AZ; *Valley Fever Center for Excellence, University of Arizona, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210960453</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Mouse Model of a Human STAT4 Point Mutation That Predisposes to Disseminated Coccidiomycosis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>ImmunoHorizons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.4049/immunohorizons.2200007</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35149520</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.4049/immunohorizons.2200007</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M. Alejandra Mandel, Sinem Beyhan, Mark Voorhies, Lisa F. Shubitz, John N. Galgiani, Marc J. Orbach, Anita Sil</t>
+          <t>George R. Thompson, Neil M. Ampel, Janis E. Blair, Fariba M. Donovan, Joshua Fierer, John N. Galgiani, Arash Heidari, Royce H. Johnson, Stanley A. Shatsky, Christopher M. Uchiyama, David A. Stevens</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4225503377</t>
+          <t>Department of Internal Medicine, Division of Infectious Diseases and the Department of Medical Microbiology and Immunology, University of California-Davis Medical Center;  Sacramento, CA  USA.; University of California - Davis Center for Valley Fever, Sacramento, CA  USA.; Division of Infectious Diseases, Mayo Clinic in Arizona,  Phoenix, AZ,  USA.; University of Arizona College of Medicine,  Tucson, AZ,  USA.; Division of Infectious Diseases, Mayo Clinic in Arizona,  Phoenix, AZ,  USA.; University of Arizona College of Medicine,  Tucson, AZ,  USA.; Division of Infectious Disease, Department of Medicine, University of California San Diego School of Medicine, La Jolla, CA,  USA.; Infectious Diseases Section, VA Healthcare San Diego,  San Diego, CA, USA.; University of Arizona College of Medicine,  Tucson, AZ,  USA.; Division of Infectious Diseases, Department of Medicine, David Geffen School of Medicine at UCLA, Kern Medical,  Bakersfield, CA, USA.; Division of Infectious Diseases, Department of Medicine, David Geffen School of Medicine at UCLA, Kern Medical,  Bakersfield, CA, USA.; Good Samaritan Hospital, San Jose, CA,  USA.; Department of Neurosurgery, Scripps Clinic and Scripps Green Hospital, La Jolla, CA, USA.; California Institute for Medical Research, San Jose, CA, USA.; Division of Infectious Diseases and Geographic Medicine, Department of Medicine, Stanford University School of Medicine, Stanford, CA, USA.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The WOPR family protein Ryp1 is a key regulator of gene expression, development, and virulence in the thermally dimorphic fungal pathogen Coccidioides posadasii</t>
+          <t>https://openalex.org/W4283122802</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>Controversies in the Management of Central Nervous System Coccidioidomycosis</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PLOS Pathogens</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Public Library of Science</t>
+          <t>Clinical Infectious Diseases</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.ppat.1009832</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1093/cid/ciac478</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35385558</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.ppat.1009832</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35717645</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/cid/ciac478</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>George R. Thompson, Neil M. Ampel, Janis E. Blair, Fariba M. Donovan, Joshua Fierer, John N. Galgiani, Arash Heidari, Royce H. Johnson, Stanley A. Shatsky, Christopher M. Uchiyama, David A. Stevens</t>
+          <t>M. Alejandra Mandel, Sinem Beyhan, Mark Voorhies, Lisa F. Shubitz, John N. Galgiani, Marc J. Orbach, Anita Sil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283122802</t>
+          <t>School of Plant Sciences, University of Arizona, Tucson, Arizona, United States of America.; Department of Microbiology and Immunology, University of California San Francisco, San Francisco, California, United States of America; Department of Microbiology and Immunology, University of California San Francisco, San Francisco, California, United States of America; Valley Fever Center for Excellence, University of Arizona, Tucson, Arizona, United States of America; Valley Fever Center for Excellence, University of Arizona, Tucson, Arizona, United States of America; School of Plant Sciences, University of Arizona, Tucson, Arizona, United States of America; Department of Microbiology and Immunology, University of California San Francisco, San Francisco, California, United States of America</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Controversies in the Management of Central Nervous System Coccidioidomycosis</t>
+          <t>https://openalex.org/W4225503377</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>The WOPR family protein Ryp1 is a key regulator of gene expression, development, and virulence in the thermally dimorphic fungal pathogen Coccidioides posadasii</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Clinical Infectious Diseases</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>PLOS Pathogens</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/cid/ciac478</t>
+          <t>Public Library of Science</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1371/journal.ppat.1009832</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35717645</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/cid/ciac478</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35385558</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1371/journal.ppat.1009832</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Laboratory of Clinical and Infectious Diseases, National Institutes of Allergy and Infectious Disease, Bethesda, MD, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Laboratory of Clinical and Infectious Diseases, National Institutes of Allergy and Infectious Disease, Bethesda, MD, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4205456491</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Vaccine Protection of Mice With Primary Immunodeficiencies Against Disseminated Coccidioidomycosis</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-01-07</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Frontiers in Cellular and Infection Microbiology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcimb.2021.790488</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35071044</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcimb.2021.790488</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Department of Pediatrics, University of Wisconsin School of Medicine and Public Health, University of Wisconsin-Madison, Madison, WI 53706, USA; Anivive Lifesciences, Long Beach, CA 90807, USA; Department of Botany and Plant Pathology, College of Agricultural Sciences, Oregon State University, Corvallis, OR 97331, USA; Department of Chemistry and Biochemistry, College of Science, University of Arizona, Tucson, AZ 85721, USA; Bio5 Institute, University of Arizona, Tucson, AZ 85721, USA; Crozet Biopharma LLC, Lexington, MA 02420, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4291001696</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Vaccines to Prevent Coccidioidomycosis: A Gene-Deletion Mutant of Coccidioides Posadasii as a Viable Candidate for Human Trials</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-08-10</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Fungi</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof8080838</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36012826</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof8080838</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210282942</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>TNFα Blockade Inhibits Both Initial and Continued Control of Pulmonary Coccidioides</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-01-31</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Frontiers in Cellular and Infection Microbiology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcimb.2021.796114</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35174101</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcimb.2021.796114</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280653334</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Cross-Sectional Study of Clinical Predictors of Coccidioidomycosis, Arizona, USA</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Emerging Infectious Diseases</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Centers for Disease Control and Prevention</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.3201/eid2806.212311</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35608552</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.3201/eid2806.212311</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>School of Medicine, University of California , San Francisco, San Francisco, CA; Department of Internal Medicine, Division of Infectious Diseases, University of California , Davis Health, Sacramento, CA; Department of Internal Medicine, Division of Infectious Diseases, University of California , Davis Health, Sacramento, CA; Centers for Disease Control and Prevention , Atlanta, Georgia , USA; Department of Internal Medicine, Division of Pulmonary/Critical Care and Palliative Medicine, University of Arizona-Tucson , Tucson, AZ; Department of Internal Medicine, University of Colorado , Boulder, CO; ; ; Department of Public Health Sciences, Division of Biostatistics, Clinical and Translational Science Center, University of California Davis , Sacramento, CA; Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson , Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297207138</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Natural history of pulmonary coccidioidomycosis: Further examination of the VA-Armed Forces Database</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-09-27</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Medical Mycology</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/mmy/myac054</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36166843</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/mmy/myac054</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>The Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA; Department of Epidemiology and Biostatistics, University of Arizona College of Public Health, Tucson, Arizona, USA; The University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA; The University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA; University of Arizona College of Medicine–Phoenix, Phoenix, Arizona, USA; The University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA; The University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA; The University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA; A. T. Still University School of Osteopathic Medicine, Mesa, Arizona, USA; Department of Epidemiology and Biostatistics, University of Arizona College of Public Health, Tucson, Arizona, USA; The Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210812635</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Contribution of Biologic Response Modifiers to the Risk of Coccidioidomycosis Severity</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-01-27</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac032</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35169593</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac032</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Valley Fever Center for Excellence, University of Arizona, 1656 E Mabel St., Tucson, AZ 85719, USA; Valley Fever Center for Excellence, University of Arizona, 1656 E Mabel St., Tucson, AZ 85719, USA; College of Veterinary Medicine, University of Arizona, 1580 E Hanley Blvd, Oro Valley, AZ 85737, USA; Valley Fever Center for Excellence, University of Arizona, 1656 E Mabel St., Tucson, AZ 85719, USA; Valley Fever Center for Excellence, University of Arizona, 1656 E Mabel St., Tucson, AZ 85719, USA; Laboratory of Clinical Immunology and Microbiology, NIAID, Building 10, 10 Center Drive, Bethesda, MD 20892, USA; Valley Fever Center for Excellence, University of Arizona, 1656 E Mabel St., Tucson, AZ 85719, USA; Valley Fever Center for Excellence, University of Arizona, 1656 E Mabel St., Tucson, AZ 85719, USA; Valley Fever Center for Excellence, University of Arizona, 1656 E Mabel St., Tucson, AZ 85719, USA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296629901</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Reactivation of Coccidioidomycosis in a Mouse Model of Asymptomatic Controlled Disease</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-09-21</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Journal of Fungi</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof8100991</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36294555</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof8100991</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Banner Health Systems , Phoenix, Arizona; Banner Urgent Care Systems , Phoenix, Arizona; Banner Urgent Care Systems , Phoenix, Arizona; Banner Urgent Care Systems , Phoenix, Arizona; Banner Urgent Care Systems , Phoenix, Arizona; University of Arizona, Valley Fever Center for Excellence , Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311750311</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>470. Changing Urgent Care Patterns of Diagnosing Coccidioidomycosis in a Highly Endemic Urban Population</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac492.528</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac492.528</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/John N Galgiani_2022.xlsx
+++ b/DOM_Banner/output/dept0713/John N Galgiani_2022.xlsx
@@ -447,12 +447,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Amy P. Hsu, Agnieszka Korzeniowska, Cynthia C Aguilar, Jiande Gu, Eric Karlins, Andrew J. Oler, Gang Chen, Glennys V. Reynoso, Joie Davis, Alexandria Laurel Chaput, Tao Peng, Ling Sun, Justin Lack, Derek Bays, Ethan R. Stewart, Sarah Waldman, Daniel A. Powell, Fariba M. Donovan, Jigar V. Desai, Nima Pouladi, Debra A. Long Priel, Daisuke Yamanaka, Sergio D. Rosenzweig, Julie E. Niemela, Jennifer Stoddard, Alexandra F. Freeman, Christa S. Zerbe, Douglas B. Kuhns, Yves A. Lussier, Kenneth N. Olivier, Richard C. Boucher, Heather D. Hickman, Jeffrey A. Frelinger, Joshua Fierer, Lisa F. Shubitz, Thomas L. Leto, George R. Thompson, John N. Galgiani, Michail S Lionakis, Steven M. Holland</t>
+          <t>Amy P. Hsu, Agnieszka Korzeniowska, Cynthia C Aguilar, Jiande Gu, Eric Karlins, Andrew J. Oler, Gang Chen, Glennys V. Reynoso, Joie Davis, Alexandria Laurel Chaput, Tao Peng, Ling Sun, Justin Lack, Derek J Bays, Ethan R. Stewart, Sarah Waldman, Daniel A. Powell, Fariba M. Donovan, Jigar V. Desai, Nima Pouladi, Debra A. Long Priel, Daisuke Yamanaka, Sergio D. Rosenzweig, Julie E. Niemela, Jennifer Stoddard, Alexandra F. Freeman, Christa S. Zerbe, Douglas B. Kuhns, Yves A. Lussier, Kenneth N. Olivier, Richard C. Boucher, Heather D. Hickman, Jeffrey A. Frelinger, Joshua Fierer, Lisa F. Shubitz, Thomas L. Leto, George R. Thompson, John N. Galgiani, Michail S Lionakis, Steven M. Holland</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Department of Cell Biology and Molecular Genetics, University of Maryland, College Park, Maryland, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; ; ; ; Marsico Lung Institute and Cystic Fibrosis Research Center, University of North Carolina at Chapel Hill, Chapel Hill, North Carolina, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Valley Fever Center for Excellence, University of Arizona College of Medicine–Tucson, Tucson, Arizona, USA.; Valley Fever Center for Excellence, University of Arizona College of Medicine–Tucson, Tucson, Arizona, USA.; Department of Respiratory and Critical Care Medicine, Laboratory of Pulmonary Immunology and Inflammation, West China Hospital, Sichuan University, Chengdu, Sichuan Province, China.; Marsico Lung Institute and Cystic Fibrosis Research Center, University of North Carolina at Chapel Hill, Chapel Hill, North Carolina, USA.; Advanced Biomedical Computational Science, Frederick National Laboratory for Cancer Research, Leidos Biomedical Research, Inc., Frederick, Maryland, USA.; NIAID Collaborative Bioinformatics Resource, NIAID, NIH, Bethesda, Maryland, USA.; Department of Internal Medicine, Division of Infectious Diseases, UC Davis Health, Sacramento, California, USA.; Department of Internal Medicine, Division of Infectious Diseases, UC Davis Health, Sacramento, California, USA.; Department of Internal Medicine, Division of Infectious Diseases, UC Davis Health, Sacramento, California, USA.; Department of Immunobiology, University of Arizona, Tucson, Arizona, USA.; Valley Fever Center for Excellence, University of Arizona College of Medicine–Tucson, Tucson, Arizona, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Center for Biomedical Informatics and Biostatistics and; The Center for Applied Genetics and Genomic Medicine, Department of Medicine, University of Arizona, Tucson, Arizona, USA.; Neutrophil Monitoring Laboratory, Applied/Developmental Research Directorate, Leidos Biomedical Research, Inc, Frederick National Laboratory for Cancer Research, Frederick, Maryland, USA.; Laboratory for Immunopharmacology of Microbial Products, School of Pharmacy, Tokyo University of Pharmacy and Life Sciences, Hachioji, Tokyo, Japan.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; ; ; ; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Neutrophil Monitoring Laboratory, Applied/Developmental Research Directorate, Leidos Biomedical Research, Inc, Frederick National Laboratory for Cancer Research, Frederick, Maryland, USA.; Center for Biomedical Informatics and Biostatistics and; The Center for Applied Genetics and Genomic Medicine, Department of Medicine, University of Arizona, Tucson, Arizona, USA.; Laboratory of Chronic Airway Infection, Pulmonary Branch, National Heart, Lung, and Blood Institute, NIH, Bethesda, Maryland, USA.; Marsico Lung Institute and Cystic Fibrosis Research Center, University of North Carolina at Chapel Hill, Chapel Hill, North Carolina, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Department of Immunobiology, University of Arizona, Tucson, Arizona, USA.; Division of Infectious Diseases, Departments of Pathology and Medicine, School of Medicine, University of California San Diego, La Jolla, California, USA.; VA HealthCare San Diego, San Diego, California, USA.; Valley Fever Center for Excellence, University of Arizona College of Medicine–Tucson, Tucson, Arizona, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Department of Medical Microbiology and Immunology, University of California Davis, Davis, California, USA.; Valley Fever Center for Excellence, University of Arizona College of Medicine–Tucson, Tucson, Arizona, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -621,57 +621,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>George R. Thompson, Neil M. Ampel, Janis E. Blair, Fariba M. Donovan, Joshua Fierer, John N. Galgiani, Arash Heidari, Royce H. Johnson, Stanley A. Shatsky, Christopher M. Uchiyama, David A. Stevens</t>
+          <t>M. Alejandra Mandel, Sinem Beyhan, Mark Voorhies, Lisa F. Shubitz, John N. Galgiani, Marc J. Orbach, Anita Sil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Department of Internal Medicine, Division of Infectious Diseases and the Department of Medical Microbiology and Immunology, University of California-Davis Medical Center;  Sacramento, CA  USA.; University of California - Davis Center for Valley Fever, Sacramento, CA  USA.; Division of Infectious Diseases, Mayo Clinic in Arizona,  Phoenix, AZ,  USA.; University of Arizona College of Medicine,  Tucson, AZ,  USA.; Division of Infectious Diseases, Mayo Clinic in Arizona,  Phoenix, AZ,  USA.; University of Arizona College of Medicine,  Tucson, AZ,  USA.; Division of Infectious Disease, Department of Medicine, University of California San Diego School of Medicine, La Jolla, CA,  USA.; Infectious Diseases Section, VA Healthcare San Diego,  San Diego, CA, USA.; University of Arizona College of Medicine,  Tucson, AZ,  USA.; Division of Infectious Diseases, Department of Medicine, David Geffen School of Medicine at UCLA, Kern Medical,  Bakersfield, CA, USA.; Division of Infectious Diseases, Department of Medicine, David Geffen School of Medicine at UCLA, Kern Medical,  Bakersfield, CA, USA.; Good Samaritan Hospital, San Jose, CA,  USA.; Department of Neurosurgery, Scripps Clinic and Scripps Green Hospital, La Jolla, CA, USA.; California Institute for Medical Research, San Jose, CA, USA.; Division of Infectious Diseases and Geographic Medicine, Department of Medicine, Stanford University School of Medicine, Stanford, CA, USA.</t>
+          <t>School of Plant Sciences, University of Arizona, Tucson, Arizona, United States of America.; Department of Microbiology and Immunology, University of California San Francisco, San Francisco, California, United States of America; Department of Microbiology and Immunology, University of California San Francisco, San Francisco, California, United States of America; Valley Fever Center for Excellence, University of Arizona, Tucson, Arizona, United States of America; Valley Fever Center for Excellence, University of Arizona, Tucson, Arizona, United States of America; School of Plant Sciences, University of Arizona, Tucson, Arizona, United States of America; Department of Microbiology and Immunology, University of California San Francisco, San Francisco, California, United States of America</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283122802</t>
+          <t>https://openalex.org/W4225503377</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Controversies in the Management of Central Nervous System Coccidioidomycosis</t>
+          <t>The WOPR family protein Ryp1 is a key regulator of gene expression, development, and virulence in the thermally dimorphic fungal pathogen Coccidioides posadasii</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Clinical Infectious Diseases</t>
+          <t>PLOS Pathogens</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Public Library of Science</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/cid/ciac478</t>
+          <t>https://doi.org/10.1371/journal.ppat.1009832</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35717645</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35385558</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/cid/ciac478</t>
+          <t>https://doi.org/10.1371/journal.ppat.1009832</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,57 +708,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M. Alejandra Mandel, Sinem Beyhan, Mark Voorhies, Lisa F. Shubitz, John N. Galgiani, Marc J. Orbach, Anita Sil</t>
+          <t>George R. Thompson, Neil M. Ampel, Janis E. Blair, Fariba M. Donovan, Joshua Fierer, John N. Galgiani, Arash Heidari, Royce H. Johnson, Stanley A. Shatsky, Christopher M. Uchiyama, David A. Stevens</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>School of Plant Sciences, University of Arizona, Tucson, Arizona, United States of America.; Department of Microbiology and Immunology, University of California San Francisco, San Francisco, California, United States of America; Department of Microbiology and Immunology, University of California San Francisco, San Francisco, California, United States of America; Valley Fever Center for Excellence, University of Arizona, Tucson, Arizona, United States of America; Valley Fever Center for Excellence, University of Arizona, Tucson, Arizona, United States of America; School of Plant Sciences, University of Arizona, Tucson, Arizona, United States of America; Department of Microbiology and Immunology, University of California San Francisco, San Francisco, California, United States of America</t>
+          <t>Department of Internal Medicine, Division of Infectious Diseases and the Department of Medical Microbiology and Immunology, University of California-Davis Medical Center;  Sacramento, CA  USA.; University of California - Davis Center for Valley Fever, Sacramento, CA  USA.; Division of Infectious Diseases, Mayo Clinic in Arizona,  Phoenix, AZ,  USA.; University of Arizona College of Medicine,  Tucson, AZ,  USA.; Division of Infectious Diseases, Mayo Clinic in Arizona,  Phoenix, AZ,  USA.; University of Arizona College of Medicine,  Tucson, AZ,  USA.; Division of Infectious Disease, Department of Medicine, University of California San Diego School of Medicine, La Jolla, CA,  USA.; Infectious Diseases Section, VA Healthcare San Diego,  San Diego, CA, USA.; University of Arizona College of Medicine,  Tucson, AZ,  USA.; Division of Infectious Diseases, Department of Medicine, David Geffen School of Medicine at UCLA, Kern Medical,  Bakersfield, CA, USA.; Division of Infectious Diseases, Department of Medicine, David Geffen School of Medicine at UCLA, Kern Medical,  Bakersfield, CA, USA.; Good Samaritan Hospital, San Jose, CA,  USA.; Department of Neurosurgery, Scripps Clinic and Scripps Green Hospital, La Jolla, CA, USA.; California Institute for Medical Research, San Jose, CA, USA.; Division of Infectious Diseases and Geographic Medicine, Department of Medicine, Stanford University School of Medicine, Stanford, CA, USA.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4225503377</t>
+          <t>https://openalex.org/W4283122802</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The WOPR family protein Ryp1 is a key regulator of gene expression, development, and virulence in the thermally dimorphic fungal pathogen Coccidioides posadasii</t>
+          <t>Controversies in the Management of Central Nervous System Coccidioidomycosis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PLOS Pathogens</t>
+          <t>Clinical Infectious Diseases</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Public Library of Science</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.ppat.1009832</t>
+          <t>https://doi.org/10.1093/cid/ciac478</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35385558</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35717645</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.ppat.1009832</t>
+          <t>https://doi.org/10.1093/cid/ciac478</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,42 +795,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Daniel A. Powell, Amy P. Hsu, Christine D. Butkiewicz, Hien T. Trinh, Jeffrey A. Frelinger, Steven M. Holland, John N. Galgiani, Lisa F. Shubitz</t>
+          <t>John N. Galgiani, Lisa F. Shubitz, Marc J. Orbach, M. Alejandra Mandel, Daniel A. Powell, Bruce S. Klein, Edward J. Robb, Mana Ohkura, Devin J. Seka, Thomas Tomasiak, Thomas P. Monath</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Laboratory of Clinical and Infectious Diseases, National Institutes of Allergy and Infectious Disease, Bethesda, MD, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Laboratory of Clinical and Infectious Diseases, National Institutes of Allergy and Infectious Disease, Bethesda, MD, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States</t>
+          <t>Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Department of Pediatrics, University of Wisconsin School of Medicine and Public Health, University of Wisconsin-Madison, Madison, WI 53706, USA; Anivive Lifesciences, Long Beach, CA 90807, USA; Department of Botany and Plant Pathology, College of Agricultural Sciences, Oregon State University, Corvallis, OR 97331, USA; Department of Chemistry and Biochemistry, College of Science, University of Arizona, Tucson, AZ 85721, USA; Bio5 Institute, University of Arizona, Tucson, AZ 85721, USA; Crozet Biopharma LLC, Lexington, MA 02420, USA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4205456491</t>
+          <t>https://openalex.org/W4291001696</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Vaccine Protection of Mice With Primary Immunodeficiencies Against Disseminated Coccidioidomycosis</t>
+          <t>Vaccines to Prevent Coccidioidomycosis: A Gene-Deletion Mutant of Coccidioides Posadasii as a Viable Candidate for Human Trials</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2022-01-07</t>
+          <t>2022-08-10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Frontiers in Cellular and Infection Microbiology</t>
+          <t>Journal of Fungi</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fcimb.2021.790488</t>
+          <t>https://doi.org/10.3390/jof8080838</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35071044</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36012826</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fcimb.2021.790488</t>
+          <t>https://doi.org/10.3390/jof8080838</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>John N. Galgiani, Lisa F. Shubitz, Marc J. Orbach, M. Alejandra Mandel, Daniel A. Powell, Bruce S. Klein, Edward J. Robb, Mana Ohkura, Devin J. Seka, Thomas Tomasiak, Thomas P. Monath</t>
+          <t>Daniel A. Powell, Amy P. Hsu, Christine D. Butkiewicz, Hien T. Trinh, Jeffrey A. Frelinger, Steven M. Holland, John N. Galgiani, Lisa F. Shubitz</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Department of Pediatrics, University of Wisconsin School of Medicine and Public Health, University of Wisconsin-Madison, Madison, WI 53706, USA; Anivive Lifesciences, Long Beach, CA 90807, USA; Department of Botany and Plant Pathology, College of Agricultural Sciences, Oregon State University, Corvallis, OR 97331, USA; Department of Chemistry and Biochemistry, College of Science, University of Arizona, Tucson, AZ 85721, USA; Bio5 Institute, University of Arizona, Tucson, AZ 85721, USA; Crozet Biopharma LLC, Lexington, MA 02420, USA</t>
+          <t>Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Laboratory of Clinical and Infectious Diseases, National Institutes of Allergy and Infectious Disease, Bethesda, MD, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Laboratory of Clinical and Infectious Diseases, National Institutes of Allergy and Infectious Disease, Bethesda, MD, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4291001696</t>
+          <t>https://openalex.org/W4205456491</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Vaccines to Prevent Coccidioidomycosis: A Gene-Deletion Mutant of Coccidioides Posadasii as a Viable Candidate for Human Trials</t>
+          <t>Vaccine Protection of Mice With Primary Immunodeficiencies Against Disseminated Coccidioidomycosis</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2022-08-10</t>
+          <t>2022-01-07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Journal of Fungi</t>
+          <t>Frontiers in Cellular and Infection Microbiology</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/jof8080838</t>
+          <t>https://doi.org/10.3389/fcimb.2021.790488</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36012826</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35071044</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/jof8080838</t>
+          <t>https://doi.org/10.3389/fcimb.2021.790488</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1143,7 +1143,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Joey Shemuel, Derek Bays, George R. Thompson, Susan E. Reef, Linda Snyder, Alana Freifeld, Milt Huppert, David Salkin, Machelle Wilson, John N. Galgiani</t>
+          <t>Joey Shemuel, Derek J Bays, George R. Thompson, Susan E. Reef, Linda Snyder, Alana Freifeld, Milt Huppert, David Salkin, Machelle Wilson, John N. Galgiani</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
